--- a/docs/Rapport/Sondage/Resultats.xlsx
+++ b/docs/Rapport/Sondage/Resultats.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUT\S1\TUT\PTUTS1A2\docs\Sondage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DUT\S1\TUT\PTUTS1A2\docs\Rapport\Sondage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7B0FB6A-A0D3-4643-AA58-8C4CBB48121E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76005526-A675-44D1-8705-EAE8AA8F5121}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="615" windowWidth="20910" windowHeight="11835" xr2:uid="{661D58A8-1DCB-441D-899D-CB8C4F758B0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{661D58A8-1DCB-441D-899D-CB8C4F758B0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$N$64</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -180,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,6 +196,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,10 +515,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABCB44BF-5639-4687-BDA6-D3ADAFBA9B51}">
-  <dimension ref="A1:N64"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:N66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,7 +574,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>44140.900937500002</v>
       </c>
@@ -627,7 +634,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>44140.901087962964</v>
       </c>
@@ -649,7 +656,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>44140.901192129626</v>
       </c>
@@ -671,7 +678,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>44140.901365740741</v>
       </c>
@@ -693,7 +700,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>44140.901377314818</v>
       </c>
@@ -715,7 +722,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>44140.901724537034</v>
       </c>
@@ -737,7 +744,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>44140.90179398148</v>
       </c>
@@ -797,7 +804,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>44140.901921296296</v>
       </c>
@@ -923,7 +930,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>44140.910219907404</v>
       </c>
@@ -945,7 +952,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>44140.910833333335</v>
       </c>
@@ -1005,7 +1012,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>44140.919189814813</v>
       </c>
@@ -1065,7 +1072,7 @@
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>44141.323182870372</v>
       </c>
@@ -1087,7 +1094,7 @@
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>44141.333043981482</v>
       </c>
@@ -1109,7 +1116,7 @@
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>44141.359490740739</v>
       </c>
@@ -1131,7 +1138,7 @@
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>44141.359583333331</v>
       </c>
@@ -1153,7 +1160,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>44141.360717592594</v>
       </c>
@@ -1175,7 +1182,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>44141.361712962964</v>
       </c>
@@ -1197,7 +1204,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>44141.361828703702</v>
       </c>
@@ -1219,7 +1226,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44141.362488425926</v>
       </c>
@@ -1241,7 +1248,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>44141.368344907409</v>
       </c>
@@ -1263,7 +1270,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>44141.369826388887</v>
       </c>
@@ -1285,7 +1292,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>44141.370289351849</v>
       </c>
@@ -1345,7 +1352,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>44141.38082175926</v>
       </c>
@@ -1367,7 +1374,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>44141.389305555553</v>
       </c>
@@ -1427,7 +1434,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>44141.395520833335</v>
       </c>
@@ -1449,7 +1456,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>44141.395891203705</v>
       </c>
@@ -1471,7 +1478,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>44141.396562499998</v>
       </c>
@@ -1569,7 +1576,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>44141.407893518517</v>
       </c>
@@ -1629,7 +1636,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>44141.447916666664</v>
       </c>
@@ -1651,7 +1658,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>44141.451956018522</v>
       </c>
@@ -1673,7 +1680,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>44141.452835648146</v>
       </c>
@@ -1695,7 +1702,7 @@
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>44141.647499999999</v>
       </c>
@@ -1717,7 +1724,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>44141.698784722219</v>
       </c>
@@ -1739,7 +1746,7 @@
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>44141.949629629627</v>
       </c>
@@ -1761,7 +1768,7 @@
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>44142.02134259259</v>
       </c>
@@ -1783,7 +1790,7 @@
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>44142.575208333335</v>
       </c>
@@ -1843,7 +1850,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>44143.88212962963</v>
       </c>
@@ -1865,7 +1872,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>44143.887881944444</v>
       </c>
@@ -1887,7 +1894,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>44144.348402777781</v>
       </c>
@@ -1909,7 +1916,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>44144.394421296296</v>
       </c>
@@ -1931,7 +1938,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>44144.418078703704</v>
       </c>
@@ -1953,7 +1960,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>44144.428807870368</v>
       </c>
@@ -1975,7 +1982,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>44144.800567129627</v>
       </c>
@@ -2025,7 +2032,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>44145.431180555555</v>
       </c>
@@ -2047,7 +2054,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2063,7 +2070,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2079,7 +2086,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2095,7 +2102,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2111,7 +2118,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2127,7 +2134,17 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
+    <row r="66" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H66" s="6"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:N64" xr:uid="{67AFC574-2B02-4306-AAA4-E179E6B50285}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
